--- a/data/TB_infrastructure.xlsx
+++ b/data/TB_infrastructure.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\FY20\CICAT\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\FY20\CICAT\CICATv1.1_072720_1\faa-cicat-master\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E49AFEC-0524-43E0-8654-1375A79872B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F732668-CD03-4723-81B1-E2FACDF08968}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="698" xr2:uid="{2D627B5F-C527-4BAB-B192-845F1489AA62}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="698" activeTab="5" xr2:uid="{2D627B5F-C527-4BAB-B192-845F1489AA62}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="10" r:id="rId1"/>
@@ -26,11 +26,12 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">CAPABILITY!$A$1:$A$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">COMPONENT!$A$1:$E$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">COMPONENT!$A$1:$E$102</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">CONNECTION!$A$1:$B$28</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">CTYPE!$A$1:$A$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">FSMAP!$A$1:$A$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">FUNCTION!$A$1:$A$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">SURFACE!$A$1:$E$240</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">SYSTEM!$A$1:$E$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="587">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -1773,6 +1774,45 @@
   </si>
   <si>
     <t>Infrastructure Model</t>
+  </si>
+  <si>
+    <t>S0001</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>S0002</t>
+  </si>
+  <si>
+    <t>S0003</t>
+  </si>
+  <si>
+    <t>S0004</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>A1101</t>
+  </si>
+  <si>
+    <t>ASSET_1101</t>
+  </si>
+  <si>
+    <t>Surface 1</t>
+  </si>
+  <si>
+    <t>Surface 2</t>
+  </si>
+  <si>
+    <t>Surface 3</t>
+  </si>
+  <si>
+    <t>Surface 4</t>
+  </si>
+  <si>
+    <t>Custom</t>
   </si>
 </sst>
 </file>
@@ -1823,12 +1863,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1843,7 +1889,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1872,9 +1918,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1885,6 +1928,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2203,7 +2256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC0FE8E-C049-4969-BB84-3537347BEB7C}">
   <dimension ref="C4:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -2213,7 +2266,7 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>570</v>
       </c>
     </row>
@@ -2228,7 +2281,7 @@
       </c>
     </row>
     <row r="8" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C8" s="16">
+      <c r="C8" s="15">
         <v>44047</v>
       </c>
     </row>
@@ -2244,1218 +2297,1475 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE47AB56-6E77-4825-B193-F8E72812D447}">
-  <dimension ref="A1:A240"/>
+  <dimension ref="A1:E240"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:XFD74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37" customWidth="1"/>
+    <col min="1" max="1" width="37" style="13" customWidth="1"/>
+    <col min="2" max="5" width="11.5703125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B1" s="19" t="s">
+        <v>574</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B4" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C5" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="C6" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C7" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C9" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C11" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="C14" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C16" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="C18" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="C20" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="C23" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="C26" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="C29" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="E30" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="E32" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+      <c r="C33" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="C40" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="D43" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="D46" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="D49" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="D52" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="C55" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="D56" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="13" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="C57" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="13" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="C59" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="13" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="B60" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="13" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="B62" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="13" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="C63" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="13" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="13" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="13" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="13" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="9" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="16" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="C68" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="13" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="13" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="13" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="13" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="B73" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="13" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="B74" s="6" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="13" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="13" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="13" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="13" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="13" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="13" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="13" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="13" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="13" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="13" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="13" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="13" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="13" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="D88" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="13" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="13" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="D90" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="13" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="13" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="13" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="D93" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="13" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="13" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="13" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="D96" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="13" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="13" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="13" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="D99" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="13" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="13" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="13" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="13" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="D103" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="13" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="13" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="13" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="13" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="D107" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="13" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="9" t="s">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="16" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="13" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="13" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="D111" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="13" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="13" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="13" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="13" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="D115" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="13" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="E116" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="13" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="B117" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="13" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="13" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="D119" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="13" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="13" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="13" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="9" t="s">
+      <c r="B122" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="16" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="D123" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="13" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="13" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="13" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="13" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="D127" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="13" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="13" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="13" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="9" t="s">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="16" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="9" t="s">
+      <c r="D131" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="16" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="E132" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="13" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="13" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="13" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="D135" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="13" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="13" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="13" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="13" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="E139" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="13" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="13" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="B141" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="13" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="13" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="13" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="E145" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="13" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="B146" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="13" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="13" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="13" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="13" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="13" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="13" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="9" t="s">
+      <c r="E152" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="16" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="13" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="13" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+      <c r="B155" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="13" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="B156" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="13" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="B157" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="13" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="B158" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="13" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+      <c r="E159" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="13" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="9" t="s">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="16" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="13" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="13" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="13" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="13" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="13" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="13" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="13" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="9" t="s">
+      <c r="B168" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="E168" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="16" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="13" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="13" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="13" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="13" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="9" t="s">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="16" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="13" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="13" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+      <c r="B176" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="E176" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="13" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="13" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="13" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="13" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="13" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="13" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="13" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="9" t="s">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="16" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="13" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="13" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="9" t="s">
+      <c r="E186" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="16" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="13" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="13" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="13" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="13" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="13" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="13" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="9" t="s">
+      <c r="E193" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="16" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="13" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="13" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="13" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="13" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="13" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="9" t="s">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="16" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+      <c r="E200" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="13" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="13" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="13" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="13" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="9" t="s">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="16" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="13" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="13" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+      <c r="E207" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="13" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="13" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="13" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="13" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="13" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="13" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="13" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="9" t="s">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="16" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="13" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+      <c r="E216" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="13" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="13" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="13" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="13" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="13" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="13" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="9" t="s">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="16" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="13" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="13" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="13" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="13" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+      <c r="B227" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="13" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="13" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="9" t="s">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="16" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="13" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="13" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
+      <c r="B232" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="13" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
+      <c r="B233" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="13" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
+      <c r="B234" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="13" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+      <c r="B235" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="13" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
+      <c r="B236" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="13" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="13" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="13" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="13" t="s">
         <v>328</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E240" xr:uid="{738FB101-E8FC-4676-9588-DC82AAB3DD01}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4367,16 +4677,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C0A419-590E-473A-A66B-65FC2D1A3B2C}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="13" customWidth="1"/>
     <col min="4" max="6" width="19.42578125" customWidth="1"/>
     <col min="7" max="7" width="42.140625" customWidth="1"/>
   </cols>
@@ -4411,7 +4721,7 @@
       <c r="B2" t="s">
         <v>335</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>336</v>
       </c>
       <c r="E2" t="s">
@@ -4428,7 +4738,7 @@
       <c r="B3" t="s">
         <v>346</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>347</v>
       </c>
       <c r="E3" t="s">
@@ -4445,7 +4755,7 @@
       <c r="B4" t="s">
         <v>343</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>344</v>
       </c>
       <c r="E4" t="s">
@@ -4462,7 +4772,7 @@
       <c r="B5" t="s">
         <v>337</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>3750</v>
       </c>
       <c r="E5" t="s">
@@ -4479,7 +4789,7 @@
       <c r="B6" t="s">
         <v>341</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>342</v>
       </c>
       <c r="E6" t="s">
@@ -4487,6 +4797,62 @@
       </c>
       <c r="G6" t="s">
         <v>340</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>574</v>
+      </c>
+      <c r="B7" t="s">
+        <v>335</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>586</v>
+      </c>
+      <c r="G7" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>576</v>
+      </c>
+      <c r="B8" t="s">
+        <v>335</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>586</v>
+      </c>
+      <c r="G8" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>577</v>
+      </c>
+      <c r="B9" t="s">
+        <v>335</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>586</v>
+      </c>
+      <c r="G9" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>578</v>
+      </c>
+      <c r="B10" t="s">
+        <v>335</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>586</v>
+      </c>
+      <c r="G10" t="s">
+        <v>585</v>
       </c>
     </row>
   </sheetData>
@@ -4497,10 +4863,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2C20A3-7B48-47E0-B7BB-3A8230721DE7}">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5741,8 +6107,8 @@
       <c r="A73" t="s">
         <v>537</v>
       </c>
-      <c r="B73" t="s">
-        <v>330</v>
+      <c r="B73" s="18" t="s">
+        <v>574</v>
       </c>
       <c r="C73" t="s">
         <v>437</v>
@@ -6230,8 +6596,25 @@
         <v>567</v>
       </c>
     </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>580</v>
+      </c>
+      <c r="B102" t="s">
+        <v>333</v>
+      </c>
+      <c r="C102" t="s">
+        <v>581</v>
+      </c>
+      <c r="D102" t="s">
+        <v>44</v>
+      </c>
+      <c r="E102" t="s">
+        <v>568</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E101" xr:uid="{1A454F60-DBFF-4F7C-947F-00C10EB42D6C}"/>
+  <autoFilter ref="A1:E102" xr:uid="{1A454F60-DBFF-4F7C-947F-00C10EB42D6C}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6239,6 +6622,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB956D7C-2ED0-4BC5-81D9-F5EF20D04511}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6252,7 +6636,7 @@
     <col min="3" max="3" width="20.28515625" customWidth="1"/>
     <col min="4" max="4" width="29.140625" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -6275,7 +6659,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -6291,11 +6675,11 @@
       <c r="E2" t="s">
         <v>330</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -6311,11 +6695,11 @@
       <c r="E3" t="s">
         <v>330</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -6331,11 +6715,11 @@
       <c r="E4" t="s">
         <v>330</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -6351,11 +6735,11 @@
       <c r="E5" t="s">
         <v>330</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -6371,11 +6755,11 @@
       <c r="E6" t="s">
         <v>330</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -6391,11 +6775,11 @@
       <c r="E7" t="s">
         <v>330</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -6411,11 +6795,11 @@
       <c r="E8" t="s">
         <v>330</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -6431,11 +6815,11 @@
       <c r="E9" t="s">
         <v>330</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -6451,11 +6835,11 @@
       <c r="E10" t="s">
         <v>330</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -6471,11 +6855,11 @@
       <c r="E11" t="s">
         <v>330</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -6491,11 +6875,11 @@
       <c r="E12" t="s">
         <v>330</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -6511,11 +6895,11 @@
       <c r="E13" t="s">
         <v>330</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -6531,11 +6915,11 @@
       <c r="E14" t="s">
         <v>330</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -6551,11 +6935,11 @@
       <c r="E15" t="s">
         <v>330</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -6571,11 +6955,11 @@
       <c r="E16" t="s">
         <v>330</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -6591,11 +6975,11 @@
       <c r="E17" t="s">
         <v>330</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -6611,11 +6995,11 @@
       <c r="E18" t="s">
         <v>330</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -6631,7 +7015,7 @@
       <c r="E19" t="s">
         <v>330</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="13">
         <v>0</v>
       </c>
     </row>
@@ -6651,11 +7035,11 @@
       <c r="E20" t="s">
         <v>330</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -6671,11 +7055,11 @@
       <c r="E21" t="s">
         <v>330</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -6691,11 +7075,11 @@
       <c r="E22" t="s">
         <v>330</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>349</v>
       </c>
@@ -6711,7 +7095,7 @@
       <c r="E23" t="s">
         <v>330</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="13">
         <v>0</v>
       </c>
     </row>
@@ -6731,7 +7115,7 @@
       <c r="E24" t="s">
         <v>330</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="13">
         <v>0</v>
       </c>
     </row>
@@ -6751,11 +7135,11 @@
       <c r="E25" t="s">
         <v>330</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>352</v>
       </c>
@@ -6771,7 +7155,7 @@
       <c r="E26" t="s">
         <v>330</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="13">
         <v>0</v>
       </c>
     </row>
@@ -6791,7 +7175,7 @@
       <c r="E27" t="s">
         <v>330</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="13">
         <v>0</v>
       </c>
     </row>
@@ -6811,12 +7195,18 @@
       <c r="E28" t="s">
         <v>330</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F28" s="13">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B28" xr:uid="{7CAE27E9-EAB2-45A2-826B-6802CC2C3ABD}"/>
+  <autoFilter ref="A1:B28" xr:uid="{7CAE27E9-EAB2-45A2-826B-6802CC2C3ABD}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="RTR_7"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
